--- a/syzygium traits.xlsx
+++ b/syzygium traits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Documents\Viburnum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251787C-6AB7-429E-9CEE-22B0B5E32E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D8208-C749-439D-AE62-2F18138A1748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11388" yWindow="420" windowWidth="10992" windowHeight="11820" activeTab="2" xr2:uid="{2E568275-0EEB-4167-81DC-ADBC8C88ECC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2E568275-0EEB-4167-81DC-ADBC8C88ECC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="481">
   <si>
     <t>Species</t>
   </si>
@@ -1147,9 +1147,6 @@
     <t>ad theta</t>
   </si>
   <si>
-    <t>ab theta</t>
-  </si>
-  <si>
     <t>H/I Layer</t>
   </si>
   <si>
@@ -1559,6 +1556,15 @@
   </si>
   <si>
     <t>vascular_shape</t>
+  </si>
+  <si>
+    <t>ab theta &amp; H theta</t>
+  </si>
+  <si>
+    <t>Avg_vein_angle</t>
+  </si>
+  <si>
+    <t>Xylem_area</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1574,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,6 +1611,12 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1646,7 +1658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1681,15 +1693,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1810,7 +1825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E53FA83A-5904-47B0-B909-0884D535D2EB}" type="CELLRANGE">
+                    <a:fld id="{AE157518-4980-419B-8952-A68C5BD8E56B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1844,7 +1859,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18422FFF-7189-4E18-A9E8-5C1B3B36D384}" type="CELLRANGE">
+                    <a:fld id="{3943F09A-D530-4136-8DC7-14A5A72AF9C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1878,7 +1893,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A370529F-264B-4192-87DA-2D5EFA74A298}" type="CELLRANGE">
+                    <a:fld id="{5D616942-5A71-4E75-8E75-CEF406D088A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1912,7 +1927,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0C0CB3E-C50D-4608-82D6-73800C536346}" type="CELLRANGE">
+                    <a:fld id="{10D6678A-1C0B-4D83-9D01-FFD93BE5FC5E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2478,7 +2493,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0CD49DD-D82D-47B9-BB11-48D426911C89}" type="CELLRANGE">
+                    <a:fld id="{F3A09A61-65D9-44B3-9E44-06778D867770}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2512,7 +2527,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E3AF17F-5F21-4045-9082-04E80F419AF4}" type="CELLRANGE">
+                    <a:fld id="{226BE003-539B-439A-805B-14217EC91D21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2546,7 +2561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FBD6CFB-516E-4AA9-9C00-C1A9DE120671}" type="CELLRANGE">
+                    <a:fld id="{F226399F-BB54-4AB7-B8A0-76629E4EB0F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2580,7 +2595,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE8B8A46-52FB-443C-A296-B52512EF3998}" type="CELLRANGE">
+                    <a:fld id="{7ADDF181-6950-4D44-ADAC-2754403973AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2614,7 +2629,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{270B4D48-A82E-45BD-A0C1-52D879C2F288}" type="CELLRANGE">
+                    <a:fld id="{C7A5A8D9-B885-4C55-BF98-17595BCAE9B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2645,8 +2660,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.0253633979173002E-2"/>
-                  <c:y val="-3.8992408981584729E-2"/>
+                  <c:x val="-6.5775673046282283E-3"/>
+                  <c:y val="-0.10415760945619434"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2654,7 +2669,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8CF14E9F-3AAF-4035-A59D-BEAE060B60A1}" type="CELLRANGE">
+                    <a:fld id="{21DC80F6-7074-4C75-9E6F-1E932C292571}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2822,6 +2837,209 @@
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-830B-4C49-852D-3003EF278C9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3809822E-926C-4EC9-81EE-F80F91E05201}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A0EC-4113-85C8-9B543B0AEF39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{87E62751-944F-4192-9534-4E123C3AACAE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A0EC-4113-85C8-9B543B0AEF39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$23:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10.508286869999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.697690000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$23:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2098.8451359999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11266959999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet3!$A$23:$A$24</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>Avg_vein_angle</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Xylem_area</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A0EC-4113-85C8-9B543B0AEF39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3293,7 +3511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A97333B-9BE0-48FA-A075-36585A432C33}" type="CELLRANGE">
+                    <a:fld id="{BAFEAA46-0435-4305-9252-9C7203B2FAC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3333,7 +3551,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC5981DE-4B8C-4269-AA99-7C9191ED3799}" type="CELLRANGE">
+                    <a:fld id="{1860B698-426F-438A-B0EB-AE14F9E1BB67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3372,7 +3590,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{440BAEBF-7BD3-48F8-BFA6-FC5F36E1328D}" type="CELLRANGE">
+                    <a:fld id="{7EF992B7-5FD2-4616-AA9C-7252085A389C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3411,7 +3629,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13257BAC-DC9A-4BA3-997B-EA4DA0E887E2}" type="CELLRANGE">
+                    <a:fld id="{4AB1557C-F84F-418A-A444-CCA0263FDF4E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3444,7 +3662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21EF0BA9-2D19-4ED8-A7D0-D7547FD8D7A7}" type="CELLRANGE">
+                    <a:fld id="{388F2E7D-220C-48EF-804E-7D6ACAE435C6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3484,7 +3702,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E0F1E27-70FA-48D6-AAC5-0370DE293063}" type="CELLRANGE">
+                    <a:fld id="{22A6D18E-541A-4592-A842-1BE59067703C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3523,7 +3741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AE0EB42-4652-4D11-97C4-E0276EE58F3A}" type="CELLRANGE">
+                    <a:fld id="{907626F2-B08B-4EA7-ACA4-B0AA6749BB48}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3562,7 +3780,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA6AB23C-9698-4648-9B75-5E7B28978CA7}" type="CELLRANGE">
+                    <a:fld id="{4E3994FE-67B4-42E7-9013-46F4507B00CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3601,7 +3819,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC00E447-F9B2-441E-BF1C-6846E8F3EAB2}" type="CELLRANGE">
+                    <a:fld id="{98EC50B5-F9DC-47D0-8B45-E1CFD83A93A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3640,7 +3858,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5ED3A1B7-A884-424F-A418-FA182E58993C}" type="CELLRANGE">
+                    <a:fld id="{D31A8E27-5AA3-4BF1-AA63-BB001F877EFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5788,16 +6006,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>455553</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>139960</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>303153</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>604599</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>99024</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>83899</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>86324</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5826,16 +6044,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>437243</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>161486</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>80362</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>250386</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138419</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5864,16 +6082,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15552</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>31103</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371152</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>69203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>404083</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>178334</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>175483</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38634</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6202,8 +6420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36017CE-89AD-4FC3-AEF5-2F91E7CACC5B}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="B1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9253,49 +9471,49 @@
   <dimension ref="A1:X102"/>
   <sheetViews>
     <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="17"/>
+      <c r="X1" s="20"/>
     </row>
     <row r="2" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>123</v>
       </c>
@@ -9369,7 +9587,7 @@
     <row r="3" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9395,32 +9613,32 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
     </row>
     <row r="5" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -13485,32 +13703,32 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="16"/>
-      <c r="X60" s="16"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
     </row>
     <row r="61" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
@@ -14251,32 +14469,32 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
     </row>
     <row r="72" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -15827,32 +16045,32 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16"/>
-      <c r="S93" s="16"/>
-      <c r="T93" s="16"/>
-      <c r="U93" s="16"/>
-      <c r="V93" s="16"/>
-      <c r="W93" s="16"/>
-      <c r="X93" s="16"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="19"/>
+      <c r="V93" s="19"/>
+      <c r="W93" s="19"/>
+      <c r="X93" s="19"/>
     </row>
     <row r="94" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
@@ -16524,13 +16742,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CCB7CF-ACBA-4CC8-8D11-84CDEFC2EFA3}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -16539,7 +16757,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>341</v>
+        <v>478</v>
       </c>
       <c r="C1" t="s">
         <v>340</v>
@@ -16551,12 +16769,12 @@
         <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D2">
         <v>21.144933368</v>
@@ -16594,7 +16812,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -16628,157 +16846,157 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>1.816452</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>1.8243339999999999</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>436.75452999999999</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>266.43860999999998</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>-49907.39</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>27459.45</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>2.249278E-2</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>5.7906449999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <v>6.7611299999999999E-2</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>-1.7150039999999998E-2</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>31.061094000000001</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>3.1779769999999998</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>6095.491</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>-3353.65</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>1.5078183999999999</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>0.11630918</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <v>0.89948439999999996</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>0.94302759999999997</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>256.23394999999999</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>68.812509000000006</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <v>-13185.68679</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>-6799.2457519999998</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>0.29222468000000001</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>0.122086785</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="16">
         <v>1.0033368</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>0.92881709999999995</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>16.434920000000002</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>0.37981219999999999</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <v>-74750.096057999996</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>-38548.374986000003</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>9.0949619999999998E-3</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>1.5261782E-2</v>
       </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="A14" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B14" s="16">
         <v>0.23112340000000001</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="16">
         <v>0.1421433</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>13.569063999999999</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>16.06982</v>
       </c>
       <c r="G14" s="7"/>
@@ -16802,7 +17020,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B16">
         <v>12.20844</v>
@@ -16820,7 +17038,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B17" s="7">
         <v>54.507190000000001</v>
@@ -16837,7 +17055,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B18">
         <v>188.64599999999999</v>
@@ -16854,7 +17072,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B19" s="7">
         <v>255.46190000000001</v>
@@ -16871,7 +17089,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B20">
         <v>0.36641970000000001</v>
@@ -16904,26 +17122,56 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>477</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B22" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>2.3370000000000002</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>0.12</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>7.1099999999999997E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23">
+        <v>42.894820000000003</v>
+      </c>
+      <c r="C23">
+        <v>42.88505</v>
+      </c>
+      <c r="D23">
+        <v>10.508286869999999</v>
+      </c>
+      <c r="E23">
+        <v>2098.8451359999999</v>
+      </c>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>480</v>
+      </c>
+      <c r="B24">
+        <v>5.4366200000000003E-2</v>
+      </c>
+      <c r="C24" s="21">
+        <v>3.4134440000000002E-2</v>
+      </c>
+      <c r="D24" s="21">
+        <v>27.697690000000001</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0.11266959999999999</v>
+      </c>
       <c r="G24" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -16952,7 +17200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEE51C7-F02D-4533-85A3-EA8216579524}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="72" workbookViewId="0">
+    <sheetView zoomScale="72" workbookViewId="0">
       <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
@@ -16989,2785 +17237,2785 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" t="s">
         <v>350</v>
       </c>
-      <c r="C2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D2" t="s">
-        <v>351</v>
-      </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J2">
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" t="s">
         <v>350</v>
       </c>
-      <c r="C3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" t="s">
-        <v>351</v>
-      </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J3">
         <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P3" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>357</v>
+      </c>
+      <c r="R3" t="s">
         <v>350</v>
       </c>
-      <c r="Q3" t="s">
-        <v>358</v>
-      </c>
-      <c r="R3" t="s">
-        <v>351</v>
-      </c>
       <c r="S3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" t="s">
         <v>353</v>
       </c>
-      <c r="B4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>354</v>
       </c>
-      <c r="E4" t="s">
-        <v>355</v>
-      </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J4">
         <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>346</v>
+      </c>
+      <c r="R4" t="s">
         <v>350</v>
       </c>
-      <c r="Q4" t="s">
-        <v>347</v>
-      </c>
-      <c r="R4" t="s">
-        <v>351</v>
-      </c>
       <c r="S4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" t="s">
         <v>350</v>
       </c>
-      <c r="C5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D5" t="s">
-        <v>351</v>
-      </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J5">
         <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P5" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>346</v>
+      </c>
+      <c r="R5" t="s">
         <v>350</v>
       </c>
-      <c r="Q5" t="s">
-        <v>347</v>
-      </c>
-      <c r="R5" t="s">
-        <v>351</v>
-      </c>
       <c r="S5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" t="s">
         <v>350</v>
       </c>
-      <c r="C6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" t="s">
-        <v>351</v>
-      </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J6">
         <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P6" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>346</v>
+      </c>
+      <c r="R6" t="s">
         <v>350</v>
       </c>
-      <c r="Q6" t="s">
-        <v>347</v>
-      </c>
-      <c r="R6" t="s">
-        <v>351</v>
-      </c>
       <c r="S6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" t="s">
         <v>350</v>
       </c>
-      <c r="C7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D7" t="s">
-        <v>351</v>
-      </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J7">
         <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>346</v>
+      </c>
+      <c r="R7" t="s">
         <v>350</v>
       </c>
-      <c r="Q7" t="s">
-        <v>347</v>
-      </c>
-      <c r="R7" t="s">
-        <v>351</v>
-      </c>
       <c r="S7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" t="s">
         <v>350</v>
       </c>
-      <c r="C8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" t="s">
-        <v>351</v>
-      </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J8">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J9">
         <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" t="s">
         <v>350</v>
       </c>
-      <c r="C10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D10" t="s">
-        <v>351</v>
-      </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J10">
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" t="s">
         <v>350</v>
       </c>
-      <c r="C11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D11" t="s">
-        <v>351</v>
-      </c>
       <c r="E11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J11">
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" t="s">
         <v>350</v>
       </c>
-      <c r="C12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" t="s">
-        <v>351</v>
-      </c>
       <c r="E12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J12">
         <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" t="s">
         <v>350</v>
       </c>
-      <c r="C13" t="s">
-        <v>347</v>
-      </c>
-      <c r="D13" t="s">
-        <v>351</v>
-      </c>
       <c r="E13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J13">
         <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" t="s">
         <v>350</v>
       </c>
-      <c r="C14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D14" t="s">
-        <v>351</v>
-      </c>
       <c r="E14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J14">
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s">
         <v>139</v>
       </c>
       <c r="C15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" t="s">
         <v>347</v>
       </c>
-      <c r="D15" t="s">
-        <v>348</v>
-      </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J15">
         <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" t="s">
         <v>350</v>
       </c>
-      <c r="C16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D16" t="s">
-        <v>351</v>
-      </c>
       <c r="E16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J16">
         <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" t="s">
         <v>350</v>
       </c>
-      <c r="C17" t="s">
-        <v>347</v>
-      </c>
-      <c r="D17" t="s">
-        <v>351</v>
-      </c>
       <c r="E17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J17">
         <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" t="s">
         <v>350</v>
       </c>
-      <c r="C18" t="s">
-        <v>347</v>
-      </c>
-      <c r="D18" t="s">
-        <v>351</v>
-      </c>
       <c r="E18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J18">
         <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" t="s">
         <v>350</v>
       </c>
-      <c r="C19" t="s">
-        <v>347</v>
-      </c>
-      <c r="D19" t="s">
-        <v>351</v>
-      </c>
       <c r="E19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J19">
         <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" t="s">
         <v>350</v>
       </c>
-      <c r="C20" t="s">
-        <v>347</v>
-      </c>
-      <c r="D20" t="s">
-        <v>351</v>
-      </c>
       <c r="E20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J20">
         <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" t="s">
         <v>350</v>
       </c>
-      <c r="C21" t="s">
-        <v>347</v>
-      </c>
-      <c r="D21" t="s">
-        <v>351</v>
-      </c>
       <c r="E21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J21">
         <v>49</v>
       </c>
       <c r="K21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" t="s">
         <v>350</v>
       </c>
-      <c r="C22" t="s">
-        <v>347</v>
-      </c>
-      <c r="D22" t="s">
-        <v>351</v>
-      </c>
       <c r="E22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J22">
         <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" t="s">
         <v>350</v>
       </c>
-      <c r="C23" t="s">
-        <v>347</v>
-      </c>
-      <c r="D23" t="s">
-        <v>351</v>
-      </c>
       <c r="E23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J23">
         <v>53</v>
       </c>
       <c r="K23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" t="s">
         <v>350</v>
       </c>
-      <c r="C24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D24" t="s">
-        <v>351</v>
-      </c>
       <c r="E24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J24">
         <v>72</v>
       </c>
       <c r="K24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" t="s">
         <v>350</v>
       </c>
-      <c r="C25" t="s">
-        <v>347</v>
-      </c>
-      <c r="D25" t="s">
-        <v>351</v>
-      </c>
       <c r="E25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J25">
         <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" t="s">
+        <v>346</v>
+      </c>
+      <c r="D26" t="s">
         <v>350</v>
       </c>
-      <c r="C26" t="s">
-        <v>347</v>
-      </c>
-      <c r="D26" t="s">
-        <v>351</v>
-      </c>
       <c r="E26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J26">
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>345</v>
+      </c>
+      <c r="B27" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" t="s">
         <v>346</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>350</v>
       </c>
-      <c r="C27" t="s">
-        <v>347</v>
-      </c>
-      <c r="D27" t="s">
-        <v>351</v>
-      </c>
       <c r="E27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J27">
         <v>39</v>
       </c>
       <c r="K27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" t="s">
         <v>350</v>
       </c>
-      <c r="C28" t="s">
-        <v>347</v>
-      </c>
-      <c r="D28" t="s">
-        <v>351</v>
-      </c>
       <c r="E28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J28">
         <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C29" t="s">
+        <v>346</v>
+      </c>
+      <c r="D29" t="s">
         <v>350</v>
       </c>
-      <c r="C29" t="s">
-        <v>347</v>
-      </c>
-      <c r="D29" t="s">
-        <v>351</v>
-      </c>
       <c r="E29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J29">
         <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C30" t="s">
+        <v>346</v>
+      </c>
+      <c r="D30" t="s">
         <v>350</v>
       </c>
-      <c r="C30" t="s">
-        <v>347</v>
-      </c>
-      <c r="D30" t="s">
-        <v>351</v>
-      </c>
       <c r="E30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J30">
         <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B31" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" t="s">
+        <v>346</v>
+      </c>
+      <c r="D31" t="s">
         <v>350</v>
       </c>
-      <c r="C31" t="s">
-        <v>347</v>
-      </c>
-      <c r="D31" t="s">
-        <v>351</v>
-      </c>
       <c r="E31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J31">
         <v>59</v>
       </c>
       <c r="K31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" t="s">
         <v>350</v>
       </c>
-      <c r="C32" t="s">
-        <v>347</v>
-      </c>
-      <c r="D32" t="s">
-        <v>351</v>
-      </c>
       <c r="E32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J32">
         <v>7</v>
       </c>
       <c r="K32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" t="s">
+        <v>346</v>
+      </c>
+      <c r="D33" t="s">
         <v>350</v>
       </c>
-      <c r="C33" t="s">
-        <v>347</v>
-      </c>
-      <c r="D33" t="s">
-        <v>351</v>
-      </c>
       <c r="E33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J33">
         <v>71</v>
       </c>
       <c r="K33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E34" t="s">
         <v>354</v>
       </c>
-      <c r="E34" t="s">
-        <v>355</v>
-      </c>
       <c r="F34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J34">
         <v>10</v>
       </c>
       <c r="K34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" t="s">
         <v>350</v>
       </c>
-      <c r="C35" t="s">
-        <v>347</v>
-      </c>
-      <c r="D35" t="s">
-        <v>351</v>
-      </c>
       <c r="E35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J35">
         <v>62</v>
       </c>
       <c r="K35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B36" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" t="s">
+        <v>346</v>
+      </c>
+      <c r="D36" t="s">
         <v>350</v>
       </c>
-      <c r="C36" t="s">
-        <v>347</v>
-      </c>
-      <c r="D36" t="s">
-        <v>351</v>
-      </c>
       <c r="E36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J36">
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" t="s">
+        <v>346</v>
+      </c>
+      <c r="D37" t="s">
         <v>350</v>
       </c>
-      <c r="C37" t="s">
-        <v>347</v>
-      </c>
-      <c r="D37" t="s">
-        <v>351</v>
-      </c>
       <c r="E37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J37">
         <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" t="s">
         <v>350</v>
       </c>
-      <c r="C38" t="s">
-        <v>347</v>
-      </c>
-      <c r="D38" t="s">
-        <v>351</v>
-      </c>
       <c r="E38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J38">
         <v>55</v>
       </c>
       <c r="K38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" t="s">
+        <v>346</v>
+      </c>
+      <c r="D39" t="s">
         <v>350</v>
       </c>
-      <c r="C39" t="s">
-        <v>347</v>
-      </c>
-      <c r="D39" t="s">
-        <v>351</v>
-      </c>
       <c r="E39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J39">
         <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B40" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" t="s">
+        <v>346</v>
+      </c>
+      <c r="D40" t="s">
         <v>350</v>
       </c>
-      <c r="C40" t="s">
-        <v>347</v>
-      </c>
-      <c r="D40" t="s">
-        <v>351</v>
-      </c>
       <c r="E40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J40">
         <v>52</v>
       </c>
       <c r="K40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E41" t="s">
         <v>354</v>
       </c>
-      <c r="E41" t="s">
-        <v>355</v>
-      </c>
       <c r="F41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J41">
         <v>75</v>
       </c>
       <c r="K41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s">
         <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J42">
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B43" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" t="s">
+        <v>346</v>
+      </c>
+      <c r="D43" t="s">
         <v>350</v>
       </c>
-      <c r="C43" t="s">
-        <v>347</v>
-      </c>
-      <c r="D43" t="s">
-        <v>351</v>
-      </c>
       <c r="E43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J43">
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s">
+        <v>349</v>
+      </c>
+      <c r="C44" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" t="s">
         <v>350</v>
       </c>
-      <c r="C44" t="s">
-        <v>347</v>
-      </c>
-      <c r="D44" t="s">
-        <v>351</v>
-      </c>
       <c r="E44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J44">
         <v>30</v>
       </c>
       <c r="K44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s">
+        <v>349</v>
+      </c>
+      <c r="C45" t="s">
+        <v>346</v>
+      </c>
+      <c r="D45" t="s">
         <v>350</v>
       </c>
-      <c r="C45" t="s">
-        <v>347</v>
-      </c>
-      <c r="D45" t="s">
-        <v>351</v>
-      </c>
       <c r="E45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J45">
         <v>12</v>
       </c>
       <c r="K45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B46" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" t="s">
         <v>350</v>
       </c>
-      <c r="C46" t="s">
-        <v>347</v>
-      </c>
-      <c r="D46" t="s">
-        <v>351</v>
-      </c>
       <c r="E46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B47" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" t="s">
+        <v>346</v>
+      </c>
+      <c r="D47" t="s">
         <v>350</v>
       </c>
-      <c r="C47" t="s">
-        <v>347</v>
-      </c>
-      <c r="D47" t="s">
-        <v>351</v>
-      </c>
       <c r="E47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J47">
         <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" t="s">
         <v>350</v>
       </c>
-      <c r="C48" t="s">
-        <v>347</v>
-      </c>
-      <c r="D48" t="s">
-        <v>351</v>
-      </c>
       <c r="E48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J48">
         <v>77</v>
       </c>
       <c r="K48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B49" t="s">
         <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J49">
         <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B50" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" t="s">
+        <v>346</v>
+      </c>
+      <c r="D50" t="s">
         <v>350</v>
       </c>
-      <c r="C50" t="s">
-        <v>347</v>
-      </c>
-      <c r="D50" t="s">
-        <v>351</v>
-      </c>
       <c r="E50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J50">
         <v>56</v>
       </c>
       <c r="K50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" t="s">
+        <v>357</v>
+      </c>
+      <c r="D51" t="s">
         <v>350</v>
       </c>
-      <c r="C51" t="s">
-        <v>358</v>
-      </c>
-      <c r="D51" t="s">
-        <v>351</v>
-      </c>
       <c r="E51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J51">
         <v>65</v>
       </c>
       <c r="K51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B52" t="s">
+        <v>349</v>
+      </c>
+      <c r="C52" t="s">
+        <v>346</v>
+      </c>
+      <c r="D52" t="s">
         <v>350</v>
       </c>
-      <c r="C52" t="s">
-        <v>347</v>
-      </c>
-      <c r="D52" t="s">
-        <v>351</v>
-      </c>
       <c r="E52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J52">
         <v>58</v>
       </c>
       <c r="K52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D53" t="s">
+        <v>353</v>
+      </c>
+      <c r="E53" t="s">
         <v>354</v>
       </c>
-      <c r="E53" t="s">
-        <v>355</v>
-      </c>
       <c r="F53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J53">
         <v>44</v>
       </c>
       <c r="K53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" t="s">
+        <v>346</v>
+      </c>
+      <c r="D54" t="s">
         <v>350</v>
       </c>
-      <c r="C54" t="s">
-        <v>347</v>
-      </c>
-      <c r="D54" t="s">
-        <v>351</v>
-      </c>
       <c r="E54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J54">
         <v>36</v>
       </c>
       <c r="K54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" t="s">
+        <v>346</v>
+      </c>
+      <c r="D55" t="s">
         <v>350</v>
       </c>
-      <c r="C55" t="s">
-        <v>347</v>
-      </c>
-      <c r="D55" t="s">
-        <v>351</v>
-      </c>
       <c r="E55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J55">
         <v>24</v>
       </c>
       <c r="K55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s">
         <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J56">
         <v>73</v>
       </c>
       <c r="K56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s">
+        <v>349</v>
+      </c>
+      <c r="C57" t="s">
+        <v>346</v>
+      </c>
+      <c r="D57" t="s">
         <v>350</v>
       </c>
-      <c r="C57" t="s">
-        <v>347</v>
-      </c>
-      <c r="D57" t="s">
-        <v>351</v>
-      </c>
       <c r="E57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J57">
         <v>32</v>
       </c>
       <c r="K57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" t="s">
+        <v>346</v>
+      </c>
+      <c r="D58" t="s">
         <v>350</v>
       </c>
-      <c r="C58" t="s">
-        <v>347</v>
-      </c>
-      <c r="D58" t="s">
-        <v>351</v>
-      </c>
       <c r="E58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J58">
         <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" t="s">
+        <v>346</v>
+      </c>
+      <c r="D59" t="s">
         <v>350</v>
       </c>
-      <c r="C59" t="s">
-        <v>347</v>
-      </c>
-      <c r="D59" t="s">
-        <v>351</v>
-      </c>
       <c r="E59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J59">
         <v>70</v>
       </c>
       <c r="K59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B60" t="s">
+        <v>349</v>
+      </c>
+      <c r="C60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D60" t="s">
         <v>350</v>
       </c>
-      <c r="C60" t="s">
-        <v>347</v>
-      </c>
-      <c r="D60" t="s">
-        <v>351</v>
-      </c>
       <c r="E60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J60">
         <v>28</v>
       </c>
       <c r="K60" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J61">
         <v>63</v>
       </c>
       <c r="K61" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s">
+        <v>349</v>
+      </c>
+      <c r="C62" t="s">
+        <v>346</v>
+      </c>
+      <c r="D62" t="s">
         <v>350</v>
       </c>
-      <c r="C62" t="s">
-        <v>347</v>
-      </c>
-      <c r="D62" t="s">
-        <v>351</v>
-      </c>
       <c r="E62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J62">
         <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B63" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" t="s">
+        <v>346</v>
+      </c>
+      <c r="D63" t="s">
         <v>350</v>
       </c>
-      <c r="C63" t="s">
-        <v>347</v>
-      </c>
-      <c r="D63" t="s">
-        <v>351</v>
-      </c>
       <c r="E63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J63">
         <v>50</v>
       </c>
       <c r="K63" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s">
+        <v>349</v>
+      </c>
+      <c r="C64" t="s">
+        <v>346</v>
+      </c>
+      <c r="D64" t="s">
         <v>350</v>
       </c>
-      <c r="C64" t="s">
-        <v>347</v>
-      </c>
-      <c r="D64" t="s">
-        <v>351</v>
-      </c>
       <c r="E64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J64">
         <v>4</v>
       </c>
       <c r="K64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" t="s">
+        <v>357</v>
+      </c>
+      <c r="D65" t="s">
         <v>350</v>
       </c>
-      <c r="C65" t="s">
-        <v>358</v>
-      </c>
-      <c r="D65" t="s">
-        <v>351</v>
-      </c>
       <c r="E65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J65">
         <v>16</v>
       </c>
       <c r="K65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s">
+        <v>349</v>
+      </c>
+      <c r="C66" t="s">
+        <v>357</v>
+      </c>
+      <c r="D66" t="s">
         <v>350</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>358</v>
       </c>
-      <c r="D66" t="s">
-        <v>351</v>
-      </c>
-      <c r="E66" t="s">
-        <v>359</v>
-      </c>
       <c r="F66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J66">
         <v>5</v>
       </c>
       <c r="K66" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" t="s">
+        <v>346</v>
+      </c>
+      <c r="D67" t="s">
         <v>350</v>
       </c>
-      <c r="C67" t="s">
-        <v>347</v>
-      </c>
-      <c r="D67" t="s">
-        <v>351</v>
-      </c>
       <c r="E67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J67">
         <v>45</v>
       </c>
       <c r="K67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B68" t="s">
         <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J68">
         <v>60</v>
       </c>
       <c r="K68" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B69" t="s">
+        <v>349</v>
+      </c>
+      <c r="C69" t="s">
+        <v>346</v>
+      </c>
+      <c r="D69" t="s">
         <v>350</v>
       </c>
-      <c r="C69" t="s">
-        <v>347</v>
-      </c>
-      <c r="D69" t="s">
-        <v>351</v>
-      </c>
       <c r="E69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J69">
         <v>69</v>
       </c>
       <c r="K69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B70" t="s">
+        <v>349</v>
+      </c>
+      <c r="C70" t="s">
+        <v>346</v>
+      </c>
+      <c r="D70" t="s">
         <v>350</v>
       </c>
-      <c r="C70" t="s">
-        <v>347</v>
-      </c>
-      <c r="D70" t="s">
-        <v>351</v>
-      </c>
       <c r="E70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J70">
         <v>57</v>
       </c>
       <c r="K70" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B71" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E71" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F71" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J71">
         <v>15</v>
       </c>
       <c r="K71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B72" t="s">
         <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J72">
         <v>6</v>
       </c>
       <c r="K72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D73" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J73">
         <v>21</v>
       </c>
       <c r="K73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B74" t="s">
+        <v>349</v>
+      </c>
+      <c r="C74" t="s">
+        <v>346</v>
+      </c>
+      <c r="D74" t="s">
         <v>350</v>
       </c>
-      <c r="C74" t="s">
-        <v>347</v>
-      </c>
-      <c r="D74" t="s">
-        <v>351</v>
-      </c>
       <c r="E74" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F74" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J74">
         <v>48</v>
       </c>
       <c r="K74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B75" t="s">
+        <v>349</v>
+      </c>
+      <c r="C75" t="s">
+        <v>346</v>
+      </c>
+      <c r="D75" t="s">
         <v>350</v>
       </c>
-      <c r="C75" t="s">
-        <v>347</v>
-      </c>
-      <c r="D75" t="s">
-        <v>351</v>
-      </c>
       <c r="E75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J75">
         <v>66</v>
       </c>
       <c r="K75" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B76" t="s">
+        <v>349</v>
+      </c>
+      <c r="C76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D76" t="s">
         <v>350</v>
       </c>
-      <c r="C76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D76" t="s">
-        <v>351</v>
-      </c>
       <c r="E76" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F76" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J76">
         <v>34</v>
       </c>
       <c r="K76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B77" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" t="s">
+        <v>346</v>
+      </c>
+      <c r="D77" t="s">
         <v>350</v>
       </c>
-      <c r="C77" t="s">
-        <v>347</v>
-      </c>
-      <c r="D77" t="s">
-        <v>351</v>
-      </c>
       <c r="E77" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F77" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J77">
         <v>37</v>
       </c>
       <c r="K77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B78" t="s">
+        <v>349</v>
+      </c>
+      <c r="C78" t="s">
+        <v>346</v>
+      </c>
+      <c r="D78" t="s">
         <v>350</v>
       </c>
-      <c r="C78" t="s">
-        <v>347</v>
-      </c>
-      <c r="D78" t="s">
-        <v>351</v>
-      </c>
       <c r="E78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F78" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J78">
         <v>11</v>
       </c>
       <c r="K78" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B79" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" t="s">
+        <v>346</v>
+      </c>
+      <c r="D79" t="s">
         <v>350</v>
       </c>
-      <c r="C79" t="s">
-        <v>347</v>
-      </c>
-      <c r="D79" t="s">
-        <v>351</v>
-      </c>
       <c r="E79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J79">
         <v>3</v>
       </c>
       <c r="K79" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>356</v>
+      </c>
+      <c r="B81" t="s">
         <v>357</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>346</v>
+      </c>
+      <c r="D81" t="s">
+        <v>350</v>
+      </c>
+      <c r="E81" t="s">
         <v>358</v>
       </c>
-      <c r="C81" t="s">
-        <v>347</v>
-      </c>
-      <c r="D81" t="s">
-        <v>351</v>
-      </c>
-      <c r="E81" t="s">
-        <v>359</v>
-      </c>
       <c r="F81" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B82" t="s">
+        <v>349</v>
+      </c>
+      <c r="C82" t="s">
+        <v>346</v>
+      </c>
+      <c r="D82" t="s">
         <v>350</v>
       </c>
-      <c r="C82" t="s">
-        <v>347</v>
-      </c>
-      <c r="D82" t="s">
-        <v>351</v>
-      </c>
       <c r="E82" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F82" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B83" t="s">
+        <v>349</v>
+      </c>
+      <c r="C83" t="s">
+        <v>346</v>
+      </c>
+      <c r="D83" t="s">
         <v>350</v>
       </c>
-      <c r="C83" t="s">
-        <v>347</v>
-      </c>
-      <c r="D83" t="s">
-        <v>351</v>
-      </c>
       <c r="E83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B84" t="s">
+        <v>349</v>
+      </c>
+      <c r="C84" t="s">
+        <v>346</v>
+      </c>
+      <c r="D84" t="s">
         <v>350</v>
       </c>
-      <c r="C84" t="s">
-        <v>347</v>
-      </c>
-      <c r="D84" t="s">
-        <v>351</v>
-      </c>
       <c r="E84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B85" t="s">
+        <v>349</v>
+      </c>
+      <c r="C85" t="s">
+        <v>346</v>
+      </c>
+      <c r="D85" t="s">
         <v>350</v>
       </c>
-      <c r="C85" t="s">
-        <v>347</v>
-      </c>
-      <c r="D85" t="s">
-        <v>351</v>
-      </c>
       <c r="E85" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F85" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B86" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86" t="s">
         <v>350</v>
       </c>
-      <c r="C86" t="s">
-        <v>347</v>
-      </c>
-      <c r="D86" t="s">
-        <v>351</v>
-      </c>
       <c r="E86" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F86" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B87" t="s">
+        <v>349</v>
+      </c>
+      <c r="C87" t="s">
+        <v>346</v>
+      </c>
+      <c r="D87" t="s">
         <v>350</v>
       </c>
-      <c r="C87" t="s">
-        <v>347</v>
-      </c>
-      <c r="D87" t="s">
-        <v>351</v>
-      </c>
       <c r="E87" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F87" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B88" t="s">
+        <v>349</v>
+      </c>
+      <c r="C88" t="s">
+        <v>346</v>
+      </c>
+      <c r="D88" t="s">
         <v>350</v>
       </c>
-      <c r="C88" t="s">
-        <v>347</v>
-      </c>
-      <c r="D88" t="s">
-        <v>351</v>
-      </c>
       <c r="E88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B89" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" t="s">
+        <v>346</v>
+      </c>
+      <c r="D89" t="s">
         <v>350</v>
       </c>
-      <c r="C89" t="s">
-        <v>347</v>
-      </c>
-      <c r="D89" t="s">
-        <v>351</v>
-      </c>
       <c r="E89" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F89" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B90" t="s">
+        <v>349</v>
+      </c>
+      <c r="C90" t="s">
+        <v>346</v>
+      </c>
+      <c r="D90" t="s">
         <v>350</v>
       </c>
-      <c r="C90" t="s">
-        <v>347</v>
-      </c>
-      <c r="D90" t="s">
-        <v>351</v>
-      </c>
       <c r="E90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B91" t="s">
+        <v>349</v>
+      </c>
+      <c r="C91" t="s">
+        <v>346</v>
+      </c>
+      <c r="D91" t="s">
         <v>350</v>
       </c>
-      <c r="C91" t="s">
-        <v>347</v>
-      </c>
-      <c r="D91" t="s">
-        <v>351</v>
-      </c>
       <c r="E91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B92" t="s">
+        <v>349</v>
+      </c>
+      <c r="C92" t="s">
+        <v>346</v>
+      </c>
+      <c r="D92" t="s">
         <v>350</v>
       </c>
-      <c r="C92" t="s">
-        <v>347</v>
-      </c>
-      <c r="D92" t="s">
-        <v>351</v>
-      </c>
       <c r="E92" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F92" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B93" t="s">
+        <v>349</v>
+      </c>
+      <c r="C93" t="s">
+        <v>346</v>
+      </c>
+      <c r="D93" t="s">
         <v>350</v>
       </c>
-      <c r="C93" t="s">
-        <v>347</v>
-      </c>
-      <c r="D93" t="s">
-        <v>351</v>
-      </c>
       <c r="E93" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F93" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B94" t="s">
+        <v>349</v>
+      </c>
+      <c r="C94" t="s">
+        <v>346</v>
+      </c>
+      <c r="D94" t="s">
         <v>350</v>
       </c>
-      <c r="C94" t="s">
-        <v>347</v>
-      </c>
-      <c r="D94" t="s">
-        <v>351</v>
-      </c>
       <c r="E94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B95" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C95" t="s">
+        <v>346</v>
+      </c>
+      <c r="D95" t="s">
         <v>347</v>
       </c>
-      <c r="D95" t="s">
-        <v>348</v>
-      </c>
       <c r="E95" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F95" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B96" t="s">
+        <v>349</v>
+      </c>
+      <c r="C96" t="s">
+        <v>346</v>
+      </c>
+      <c r="D96" t="s">
         <v>350</v>
       </c>
-      <c r="C96" t="s">
-        <v>347</v>
-      </c>
-      <c r="D96" t="s">
-        <v>351</v>
-      </c>
       <c r="E96" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F96" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B97" t="s">
+        <v>349</v>
+      </c>
+      <c r="C97" t="s">
+        <v>346</v>
+      </c>
+      <c r="D97" t="s">
         <v>350</v>
       </c>
-      <c r="C97" t="s">
-        <v>347</v>
-      </c>
-      <c r="D97" t="s">
-        <v>351</v>
-      </c>
       <c r="E97" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F97" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B98" t="s">
+        <v>349</v>
+      </c>
+      <c r="C98" t="s">
+        <v>346</v>
+      </c>
+      <c r="D98" t="s">
         <v>350</v>
       </c>
-      <c r="C98" t="s">
-        <v>347</v>
-      </c>
-      <c r="D98" t="s">
-        <v>351</v>
-      </c>
       <c r="E98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B99" t="s">
+        <v>349</v>
+      </c>
+      <c r="C99" t="s">
+        <v>346</v>
+      </c>
+      <c r="D99" t="s">
         <v>350</v>
       </c>
-      <c r="C99" t="s">
-        <v>347</v>
-      </c>
-      <c r="D99" t="s">
-        <v>351</v>
-      </c>
       <c r="E99" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F99" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B100" t="s">
+        <v>349</v>
+      </c>
+      <c r="C100" t="s">
+        <v>346</v>
+      </c>
+      <c r="D100" t="s">
         <v>350</v>
       </c>
-      <c r="C100" t="s">
-        <v>347</v>
-      </c>
-      <c r="D100" t="s">
-        <v>351</v>
-      </c>
       <c r="E100" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F100" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B101" t="s">
+        <v>349</v>
+      </c>
+      <c r="C101" t="s">
+        <v>346</v>
+      </c>
+      <c r="D101" t="s">
         <v>350</v>
       </c>
-      <c r="C101" t="s">
-        <v>347</v>
-      </c>
-      <c r="D101" t="s">
-        <v>351</v>
-      </c>
       <c r="E101" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F101" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B102" t="s">
         <v>139</v>
       </c>
       <c r="C102" t="s">
+        <v>346</v>
+      </c>
+      <c r="D102" t="s">
         <v>347</v>
       </c>
-      <c r="D102" t="s">
-        <v>348</v>
-      </c>
       <c r="E102" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F102" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B103" t="s">
+        <v>349</v>
+      </c>
+      <c r="C103" t="s">
+        <v>346</v>
+      </c>
+      <c r="D103" t="s">
         <v>350</v>
       </c>
-      <c r="C103" t="s">
-        <v>347</v>
-      </c>
-      <c r="D103" t="s">
-        <v>351</v>
-      </c>
       <c r="E103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B104" t="s">
+        <v>349</v>
+      </c>
+      <c r="C104" t="s">
+        <v>346</v>
+      </c>
+      <c r="D104" t="s">
         <v>350</v>
       </c>
-      <c r="C104" t="s">
-        <v>347</v>
-      </c>
-      <c r="D104" t="s">
-        <v>351</v>
-      </c>
       <c r="E104" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F104" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B105" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" t="s">
+        <v>346</v>
+      </c>
+      <c r="D105" t="s">
         <v>350</v>
       </c>
-      <c r="C105" t="s">
-        <v>347</v>
-      </c>
-      <c r="D105" t="s">
-        <v>351</v>
-      </c>
       <c r="E105" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F105" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B106" t="s">
+        <v>349</v>
+      </c>
+      <c r="C106" t="s">
+        <v>346</v>
+      </c>
+      <c r="D106" t="s">
         <v>350</v>
       </c>
-      <c r="C106" t="s">
-        <v>347</v>
-      </c>
-      <c r="D106" t="s">
-        <v>351</v>
-      </c>
       <c r="E106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B107" t="s">
+        <v>349</v>
+      </c>
+      <c r="C107" t="s">
+        <v>346</v>
+      </c>
+      <c r="D107" t="s">
         <v>350</v>
       </c>
-      <c r="C107" t="s">
-        <v>347</v>
-      </c>
-      <c r="D107" t="s">
-        <v>351</v>
-      </c>
       <c r="E107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B108" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D108" t="s">
+        <v>353</v>
+      </c>
+      <c r="E108" t="s">
         <v>354</v>
       </c>
-      <c r="E108" t="s">
-        <v>355</v>
-      </c>
       <c r="F108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B109" t="s">
+        <v>349</v>
+      </c>
+      <c r="C109" t="s">
+        <v>346</v>
+      </c>
+      <c r="D109" t="s">
         <v>350</v>
       </c>
-      <c r="C109" t="s">
-        <v>347</v>
-      </c>
-      <c r="D109" t="s">
-        <v>351</v>
-      </c>
       <c r="E109" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F109" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B110" t="s">
         <v>139</v>
       </c>
       <c r="C110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D110" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C111" t="s">
+        <v>346</v>
+      </c>
+      <c r="D111" t="s">
         <v>347</v>
       </c>
-      <c r="D111" t="s">
-        <v>348</v>
-      </c>
       <c r="E111" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F111" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B112" t="s">
+        <v>349</v>
+      </c>
+      <c r="C112" t="s">
+        <v>346</v>
+      </c>
+      <c r="D112" t="s">
         <v>350</v>
       </c>
-      <c r="C112" t="s">
-        <v>347</v>
-      </c>
-      <c r="D112" t="s">
-        <v>351</v>
-      </c>
       <c r="E112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B113" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C113" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D113" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E113" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F113" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B114" t="s">
+        <v>349</v>
+      </c>
+      <c r="C114" t="s">
+        <v>346</v>
+      </c>
+      <c r="D114" t="s">
         <v>350</v>
       </c>
-      <c r="C114" t="s">
-        <v>347</v>
-      </c>
-      <c r="D114" t="s">
-        <v>351</v>
-      </c>
       <c r="E114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
